--- a/ClassContent/01-Excel/3/Activities/04-Ins_ScatterPlot/Solved/ScatterPlot.xlsx
+++ b/ClassContent/01-Excel/3/Activities/04-Ins_ScatterPlot/Solved/ScatterPlot.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\Documents\WorkAndSchool\TeachingAssistant\DataViz\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\3\Activities\04-Ins_ScatterPlot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teacher Travis\NU_Bootcamp\NUCHI201811DATA2\ClassContent\01-Excel\3\Activities\04-Ins_ScatterPlot\Solved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="3595D72AD5E81735055C80B4E5ED9155B5AD863B" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{D77A73B6-749C-4C99-8BE9-2615C1C991F0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B58A33-08C0-4A0F-85D7-57A0C5EB625F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="14070" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal Trend" sheetId="1" r:id="rId1"/>
     <sheet name="Power Trend" sheetId="2" r:id="rId2"/>
     <sheet name="Exponential Trend" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -967,37 +972,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2100000000000002</c:v>
+                  <c:v>9.8491553067593287</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7280000000000006</c:v>
+                  <c:v>12.125732532083189</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8561000000000019</c:v>
+                  <c:v>14.928527864588924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.378240000000007</c:v>
+                  <c:v>18.379173679952565</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.390625000000021</c:v>
+                  <c:v>22.62741699796954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.843545600000066</c:v>
+                  <c:v>27.857618025475997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69.757574410000174</c:v>
+                  <c:v>34.296750801161409</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>198.3592903680007</c:v>
+                  <c:v>42.224253144732671</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>613.10662578010249</c:v>
+                  <c:v>51.984153366799148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2048.00000000001</c:v>
+                  <c:v>64.000000000000085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1088,7 +1093,6 @@
         <c:axId val="524271848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2100"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1147,7 +1151,6 @@
         <c:crossAx val="524271520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="200"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3284,7 +3287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
@@ -3519,8 +3522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3541,8 +3544,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>A2^(ROW()-1)</f>
-        <v>1</v>
+        <f>8^A2</f>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -3551,8 +3554,8 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B12" si="0">A3^(ROW()-1)</f>
-        <v>1.2100000000000002</v>
+        <f t="shared" ref="B3:B12" si="0">8^A3</f>
+        <v>9.8491553067593287</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -3562,7 +3565,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
-        <v>1.7280000000000006</v>
+        <v>12.125732532083189</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -3572,7 +3575,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>2.8561000000000019</v>
+        <v>14.928527864588924</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -3582,7 +3585,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>5.378240000000007</v>
+        <v>18.379173679952565</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -3592,7 +3595,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>11.390625000000021</v>
+        <v>22.62741699796954</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -3602,7 +3605,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>26.843545600000066</v>
+        <v>27.857618025475997</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -3612,7 +3615,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>69.757574410000174</v>
+        <v>34.296750801161409</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -3622,7 +3625,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>198.3592903680007</v>
+        <v>42.224253144732671</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -3632,7 +3635,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>613.10662578010249</v>
+        <v>51.984153366799148</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -3642,7 +3645,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>2048.00000000001</v>
+        <v>64.000000000000085</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
